--- a/Code/Results/Cases/Case_3_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.888854038638414</v>
+        <v>0.6102602746826733</v>
       </c>
       <c r="C2">
-        <v>0.4898716469878934</v>
+        <v>0.1727439139589819</v>
       </c>
       <c r="D2">
-        <v>0.04899304524487036</v>
+        <v>0.01676340789866515</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4074330844009992</v>
+        <v>0.4316706243986914</v>
       </c>
       <c r="G2">
-        <v>0.0007764559121908321</v>
+        <v>0.002377487232050765</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.138591592467737</v>
+        <v>0.3047803667561588</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.79011389603744</v>
+        <v>0.8941860217118602</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.05318001041266</v>
+        <v>1.357150278412661</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.656107247473756</v>
+        <v>0.5329805854129575</v>
       </c>
       <c r="C3">
-        <v>0.4359358054639415</v>
+        <v>0.1542519493905559</v>
       </c>
       <c r="D3">
-        <v>0.0433046849182972</v>
+        <v>0.01482873341761604</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.3704251749421488</v>
+        <v>0.4272857750376531</v>
       </c>
       <c r="G3">
-        <v>0.0007805504770540464</v>
+        <v>0.002380091821955285</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.141633233379153</v>
+        <v>0.3100628151317508</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.374978020051415</v>
+        <v>0.7956521778414043</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.9774124203934491</v>
+        <v>1.355696221567882</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.512761871062565</v>
+        <v>0.4853348552182695</v>
       </c>
       <c r="C4">
-        <v>0.4026658349602599</v>
+        <v>0.1428302557792449</v>
       </c>
       <c r="D4">
-        <v>0.0397983649290623</v>
+        <v>0.01363448727448002</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.3488286943877554</v>
+        <v>0.424992840530777</v>
       </c>
       <c r="G4">
-        <v>0.0007831360313310647</v>
+        <v>0.002381775618125186</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1442880834512792</v>
+        <v>0.3136052725858711</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.128991060197109</v>
+        <v>0.735678602262297</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.9345167213896275</v>
+        <v>1.356100921375756</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.45423461413975</v>
+        <v>0.4658714285372128</v>
       </c>
       <c r="C5">
-        <v>0.3890705659184732</v>
+        <v>0.1381592904448894</v>
       </c>
       <c r="D5">
-        <v>0.03836607641812151</v>
+        <v>0.01314626948086328</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3402889656277353</v>
+        <v>0.4241585502619287</v>
       </c>
       <c r="G5">
-        <v>0.0007842083367250252</v>
+        <v>0.002382483111634519</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1455553739603737</v>
+        <v>0.3151237670265523</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.030604880193039</v>
+        <v>0.7113651255858997</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.9178794435095625</v>
+        <v>1.356590919026559</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.444509304783054</v>
+        <v>0.4626367314768345</v>
       </c>
       <c r="C6">
-        <v>0.3868108421632712</v>
+        <v>0.13738269509318</v>
       </c>
       <c r="D6">
-        <v>0.03812803820234478</v>
+        <v>0.01306510878740141</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3388860941184717</v>
+        <v>0.4240260531228586</v>
       </c>
       <c r="G6">
-        <v>0.0007843875390680384</v>
+        <v>0.002382601880828651</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1457766563710159</v>
+        <v>0.3153804284547341</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.014369795156654</v>
+        <v>0.7073353377297877</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.915165842583292</v>
+        <v>1.356691881981035</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.5119730128566</v>
+        <v>0.4850725541830059</v>
       </c>
       <c r="C7">
-        <v>0.4024826350553212</v>
+        <v>0.1427673278430461</v>
       </c>
       <c r="D7">
-        <v>0.03977906250719343</v>
+        <v>0.0136279092279068</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3487124960432482</v>
+        <v>0.4249811841345874</v>
       </c>
       <c r="G7">
-        <v>0.0007831504163757048</v>
+        <v>0.002381785073031027</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1443044397167093</v>
+        <v>0.3136254485691303</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.127657144934801</v>
+        <v>0.7353501991427152</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.9342890187919579</v>
+        <v>1.356106214982901</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.808692277526973</v>
+        <v>0.5836559076192316</v>
       </c>
       <c r="C8">
-        <v>0.4713070626427509</v>
+        <v>0.1663821714001585</v>
       </c>
       <c r="D8">
-        <v>0.04703453156795945</v>
+        <v>0.01609767517012983</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3944250163154024</v>
+        <v>0.4300756366874126</v>
       </c>
       <c r="G8">
-        <v>0.0007778533264016151</v>
+        <v>0.00237836778357333</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1394690907617786</v>
+        <v>0.3065395298653328</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.644875996326007</v>
+        <v>0.8600984758293322</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.026259770914123</v>
+        <v>1.356378905256804</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.387192537379406</v>
+        <v>0.7753549698638835</v>
       </c>
       <c r="C9">
-        <v>0.604993109245072</v>
+        <v>0.2121370008084682</v>
       </c>
       <c r="D9">
-        <v>0.06115385024055087</v>
+        <v>0.02088882226556876</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4941076986972774</v>
+        <v>0.4432507971852928</v>
       </c>
       <c r="G9">
-        <v>0.0007679969481690918</v>
+        <v>0.002372334394318477</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1368556553618063</v>
+        <v>0.2950288719113381</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.750888384393051</v>
+        <v>1.109202655633126</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.238788978947838</v>
+        <v>1.367264631256575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.810233255882679</v>
+        <v>0.915126799295706</v>
       </c>
       <c r="C10">
-        <v>0.7022958871552021</v>
+        <v>0.2453946683571928</v>
       </c>
       <c r="D10">
-        <v>0.07145819547839238</v>
+        <v>0.02437520670458326</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.5751807345554809</v>
+        <v>0.4548962234985083</v>
       </c>
       <c r="G10">
-        <v>0.0007610203968384842</v>
+        <v>0.002368304482363534</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1400950929114337</v>
+        <v>0.2880426474980098</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.656693042040772</v>
+        <v>1.295378651028301</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.419859050496285</v>
+        <v>1.381653497705685</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.002209755765136</v>
+        <v>0.9784643512175535</v>
       </c>
       <c r="C11">
-        <v>0.7463059278387902</v>
+        <v>0.2604424270064385</v>
       </c>
       <c r="D11">
-        <v>0.07612869119415677</v>
+        <v>0.0259535535558868</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6142095767248037</v>
+        <v>0.4606261142852688</v>
       </c>
       <c r="G11">
-        <v>0.0007578876020051847</v>
+        <v>0.00236655770939395</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1429445365757438</v>
+        <v>0.2851873916873657</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.100594448057308</v>
+        <v>1.380858028415375</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.509029236456854</v>
+        <v>1.389604757560022</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.074826855236211</v>
+        <v>1.002411728739844</v>
       </c>
       <c r="C12">
-        <v>0.7629268762551362</v>
+        <v>0.2661285110272047</v>
       </c>
       <c r="D12">
-        <v>0.07789443894821346</v>
+        <v>0.02655009612938386</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6293414919403659</v>
+        <v>0.4628584311000452</v>
       </c>
       <c r="G12">
-        <v>0.0007567054244472519</v>
+        <v>0.002365908613175067</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.144246921720633</v>
+        <v>0.2841529026104013</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.274605786109589</v>
+        <v>1.413347815844489</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.543910555191815</v>
+        <v>1.392819189730147</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.05919133614924</v>
+        <v>0.9972559161310528</v>
       </c>
       <c r="C13">
-        <v>0.7593494154836549</v>
+        <v>0.2649044602527511</v>
       </c>
       <c r="D13">
-        <v>0.07751429028874668</v>
+        <v>0.02642167159024211</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.62606611154105</v>
+        <v>0.4623748748431922</v>
       </c>
       <c r="G13">
-        <v>0.0007569598753658952</v>
+        <v>0.002366047858565671</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1439560407767893</v>
+        <v>0.2843736148074321</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.236840461505508</v>
+        <v>1.406345074486438</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.536346246520509</v>
+        <v>1.392117834069779</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.008185722548376</v>
+        <v>0.9804352723217562</v>
       </c>
       <c r="C14">
-        <v>0.7476742989645118</v>
+        <v>0.2609104713276906</v>
       </c>
       <c r="D14">
-        <v>0.07627402101702785</v>
+        <v>0.02600265464745632</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6154471475829695</v>
+        <v>0.4608085130281552</v>
       </c>
       <c r="G14">
-        <v>0.0007577902719346216</v>
+        <v>0.002366504060217704</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1430470459059237</v>
+        <v>0.285101345220113</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.114782780719622</v>
+        <v>1.383528522430112</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.511875742568293</v>
+        <v>1.389865125538137</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.976932326935639</v>
+        <v>0.9701272444260667</v>
       </c>
       <c r="C15">
-        <v>0.7405168277036296</v>
+        <v>0.2584624379080651</v>
       </c>
       <c r="D15">
-        <v>0.07551393052370514</v>
+        <v>0.02574584442997718</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6089900525405909</v>
+        <v>0.4598572254172453</v>
       </c>
       <c r="G15">
-        <v>0.0007582993949987637</v>
+        <v>0.002366785106099339</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1425201817358221</v>
+        <v>0.285553196639615</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.040835909607097</v>
+        <v>1.369568655531467</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.497036436858451</v>
+        <v>1.388511812719088</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.797676810174551</v>
+        <v>0.9109824417145092</v>
       </c>
       <c r="C16">
-        <v>0.6994139965474062</v>
+        <v>0.244409584317026</v>
       </c>
       <c r="D16">
-        <v>0.07115259406116081</v>
+        <v>0.0242719005826828</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.572676910010216</v>
+        <v>0.4545304922656044</v>
       </c>
       <c r="G16">
-        <v>0.000761225815557715</v>
+        <v>0.002368420372410104</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1399386448738866</v>
+        <v>0.2882357678435881</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.628429270682531</v>
+        <v>1.289808839894036</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.414179590891479</v>
+        <v>1.381162263610577</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.687582892736145</v>
+        <v>0.8746348261060461</v>
       </c>
       <c r="C17">
-        <v>0.6741289399690515</v>
+        <v>0.2357674419987177</v>
       </c>
       <c r="D17">
-        <v>0.06847246230929471</v>
+        <v>0.02336569726730886</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.550979148830784</v>
+        <v>0.4513737021488922</v>
       </c>
       <c r="G17">
-        <v>0.0007630304339116557</v>
+        <v>0.002369445653096449</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1387241953373071</v>
+        <v>0.2899643418283198</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.384421369412109</v>
+        <v>1.241085570046152</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.365181870990085</v>
+        <v>1.377014527866407</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.624217002278385</v>
+        <v>0.8537056576601003</v>
       </c>
       <c r="C18">
-        <v>0.6595624354906704</v>
+        <v>0.2307890846191185</v>
       </c>
       <c r="D18">
-        <v>0.06692935606981365</v>
+        <v>0.02284375796472204</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.5386984155456318</v>
+        <v>0.449598671037009</v>
       </c>
       <c r="G18">
-        <v>0.0007640723730572652</v>
+        <v>0.00237004350871179</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1381534273390272</v>
+        <v>0.2909889377060715</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.246973207600547</v>
+        <v>1.213134851996514</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.337630467021057</v>
+        <v>1.374761091135326</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.602755325173462</v>
+        <v>0.8466155117849326</v>
       </c>
       <c r="C19">
-        <v>0.6546266808533119</v>
+        <v>0.2291022033484751</v>
       </c>
       <c r="D19">
-        <v>0.06640662758054106</v>
+        <v>0.02266691687908917</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.5345733707597375</v>
+        <v>0.4490046502188321</v>
       </c>
       <c r="G19">
-        <v>0.0007644258842945576</v>
+        <v>0.002370247332683009</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1379814064046236</v>
+        <v>0.2913410540604779</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.200898876917321</v>
+        <v>1.203683639781147</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.328406559979385</v>
+        <v>1.374020786609833</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.699307074997705</v>
+        <v>0.8785064840949985</v>
       </c>
       <c r="C20">
-        <v>0.6768230286960772</v>
+        <v>0.2366882055296742</v>
       </c>
       <c r="D20">
-        <v>0.06875793131656138</v>
+        <v>0.02346223850631191</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.5532679973001393</v>
+        <v>0.4517055359132485</v>
       </c>
       <c r="G20">
-        <v>0.0007628379296044576</v>
+        <v>0.00236933566826421</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1388400824473486</v>
+        <v>0.2897771871545984</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.410087973693066</v>
+        <v>1.246264572873159</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.370331557973401</v>
+        <v>1.377442366396252</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.023169633178952</v>
+        <v>0.9853769272280601</v>
       </c>
       <c r="C21">
-        <v>0.7511048601421919</v>
+        <v>0.2620839369618579</v>
       </c>
       <c r="D21">
-        <v>0.07663840047713677</v>
+        <v>0.02612576147360102</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6185562434914544</v>
+        <v>0.461266891480463</v>
       </c>
       <c r="G21">
-        <v>0.000757546267739</v>
+        <v>0.002366369727740809</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1433077520665407</v>
+        <v>0.2848863222926639</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.150460828483816</v>
+        <v>1.390226963500126</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.519031872143358</v>
+        <v>1.390521268151957</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.23435158348866</v>
+        <v>1.055005361385042</v>
       </c>
       <c r="C22">
-        <v>0.7993850806298326</v>
+        <v>0.2786103249115968</v>
       </c>
       <c r="D22">
-        <v>0.08177164779472434</v>
+        <v>0.02785984332295044</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.663306639703606</v>
+        <v>0.4678804401264927</v>
       </c>
       <c r="G22">
-        <v>0.0007541108749415422</v>
+        <v>0.002364503379829103</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1475449222935161</v>
+        <v>0.2819624092273116</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.669771758067512</v>
+        <v>1.485021264385452</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.622793779134014</v>
+        <v>1.400255638450602</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.121690646153979</v>
+        <v>1.017863887849671</v>
       </c>
       <c r="C23">
-        <v>0.7736452036761534</v>
+        <v>0.2697965531425837</v>
       </c>
       <c r="D23">
-        <v>0.07903370504102014</v>
+        <v>0.02693495809737101</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6392157176960609</v>
+        <v>0.4643171792542518</v>
       </c>
       <c r="G23">
-        <v>0.0007559429932547657</v>
+        <v>0.002365492911599433</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.145153257856542</v>
+        <v>0.2834979142835081</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.388804992304429</v>
+        <v>1.434360603402979</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.56676071978498</v>
+        <v>1.394951213894558</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.694006793830795</v>
+        <v>0.8767562084177598</v>
       </c>
       <c r="C24">
-        <v>0.6756051233967924</v>
+        <v>0.2362719590591098</v>
       </c>
       <c r="D24">
-        <v>0.06862887779789872</v>
+        <v>0.02341859517071754</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.5522326090884988</v>
+        <v>0.4515553897732971</v>
       </c>
       <c r="G24">
-        <v>0.0007629249468407816</v>
+        <v>0.002369385366243831</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1387872948200588</v>
+        <v>0.2898617038224636</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.39847536569853</v>
+        <v>1.243922956444166</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.368001469446398</v>
+        <v>1.377248532188588</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.231038262291463</v>
+        <v>0.7236773554402021</v>
       </c>
       <c r="C25">
-        <v>0.5689747812728854</v>
+        <v>0.1998205556671451</v>
       </c>
       <c r="D25">
-        <v>0.05734591506476505</v>
+        <v>0.01959846411855182</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4659005562051419</v>
+        <v>0.4393431128729759</v>
       </c>
       <c r="G25">
-        <v>0.0007706120145710414</v>
+        <v>0.002373895533297976</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1367340128117505</v>
+        <v>0.2978857639372343</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.438517127911894</v>
+        <v>1.041290444874917</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.177338487116799</v>
+        <v>1.363203248816006</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_102/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_102/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6102602746826733</v>
+        <v>1.888854038638385</v>
       </c>
       <c r="C2">
-        <v>0.1727439139589819</v>
+        <v>0.489871646987865</v>
       </c>
       <c r="D2">
-        <v>0.01676340789866515</v>
+        <v>0.04899304524497694</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4316706243986914</v>
+        <v>0.407433084400985</v>
       </c>
       <c r="G2">
-        <v>0.002377487232050765</v>
+        <v>0.0007764559122099561</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3047803667561588</v>
+        <v>0.1385915924677334</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8941860217118602</v>
+        <v>2.790113896037482</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.357150278412661</v>
+        <v>1.053180010412603</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5329805854129575</v>
+        <v>1.656107247473642</v>
       </c>
       <c r="C3">
-        <v>0.1542519493905559</v>
+        <v>0.4359358054641689</v>
       </c>
       <c r="D3">
-        <v>0.01482873341761604</v>
+        <v>0.04330468491817641</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4272857750376531</v>
+        <v>0.370425174942163</v>
       </c>
       <c r="G3">
-        <v>0.002380091821955285</v>
+        <v>0.0007805504769960597</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3100628151317508</v>
+        <v>0.1416332333791637</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7956521778414043</v>
+        <v>2.374978020051429</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.355696221567882</v>
+        <v>0.9774124203934917</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4853348552182695</v>
+        <v>1.512761871062537</v>
       </c>
       <c r="C4">
-        <v>0.1428302557792449</v>
+        <v>0.4026658349602599</v>
       </c>
       <c r="D4">
-        <v>0.01363448727448002</v>
+        <v>0.03979836492904809</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.424992840530777</v>
+        <v>0.348828694387727</v>
       </c>
       <c r="G4">
-        <v>0.002381775618125186</v>
+        <v>0.0007831360312727632</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3136052725858711</v>
+        <v>0.1442880834512934</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.735678602262297</v>
+        <v>2.12899106019708</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.356100921375756</v>
+        <v>0.9345167213895991</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4658714285372128</v>
+        <v>1.454234614139807</v>
       </c>
       <c r="C5">
-        <v>0.1381592904448894</v>
+        <v>0.389070565918729</v>
       </c>
       <c r="D5">
-        <v>0.01314626948086328</v>
+        <v>0.03836607641805045</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4241585502619287</v>
+        <v>0.3402889656277495</v>
       </c>
       <c r="G5">
-        <v>0.002382483111634519</v>
+        <v>0.0007842083367245828</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3151237670265523</v>
+        <v>0.1455553739603594</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7113651255858997</v>
+        <v>2.030604880193039</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.356590919026559</v>
+        <v>0.9178794435095767</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4626367314768345</v>
+        <v>1.444509304783082</v>
       </c>
       <c r="C6">
-        <v>0.13738269509318</v>
+        <v>0.3868108421632144</v>
       </c>
       <c r="D6">
-        <v>0.01306510878740141</v>
+        <v>0.03812803820239452</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4240260531228586</v>
+        <v>0.3388860941185072</v>
       </c>
       <c r="G6">
-        <v>0.002382601880828651</v>
+        <v>0.0007843875390491633</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3153804284547341</v>
+        <v>0.145776656371023</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7073353377297877</v>
+        <v>2.014369795156639</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.356691881981035</v>
+        <v>0.915165842583292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4850725541830059</v>
+        <v>1.511973012856686</v>
       </c>
       <c r="C7">
-        <v>0.1427673278430461</v>
+        <v>0.4024826350555486</v>
       </c>
       <c r="D7">
-        <v>0.0136279092279068</v>
+        <v>0.03977906250718632</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4249811841345874</v>
+        <v>0.348712496043234</v>
       </c>
       <c r="G7">
-        <v>0.002381785073031027</v>
+        <v>0.0007831504163574411</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3136254485691303</v>
+        <v>0.1443044397167093</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7353501991427152</v>
+        <v>2.127657144934787</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.356106214982901</v>
+        <v>0.9342890187918726</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5836559076192316</v>
+        <v>1.808692277527001</v>
       </c>
       <c r="C8">
-        <v>0.1663821714001585</v>
+        <v>0.4713070626428646</v>
       </c>
       <c r="D8">
-        <v>0.01609767517012983</v>
+        <v>0.04703453156796655</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4300756366874126</v>
+        <v>0.3944250163153953</v>
       </c>
       <c r="G8">
-        <v>0.00237836778357333</v>
+        <v>0.0007778533264004572</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3065395298653328</v>
+        <v>0.1394690907617857</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8600984758293322</v>
+        <v>2.644875996326022</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.356378905256804</v>
+        <v>1.026259770914095</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7753549698638835</v>
+        <v>2.387192537379292</v>
       </c>
       <c r="C9">
-        <v>0.2121370008084682</v>
+        <v>0.6049931092453278</v>
       </c>
       <c r="D9">
-        <v>0.02088882226556876</v>
+        <v>0.06115385024060771</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4432507971852928</v>
+        <v>0.4941076986972632</v>
       </c>
       <c r="G9">
-        <v>0.002372334394318477</v>
+        <v>0.0007679969481682036</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.2950288719113381</v>
+        <v>0.1368556553618028</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.109202655633126</v>
+        <v>3.750888384393051</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.367264631256575</v>
+        <v>1.238788978947895</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.915126799295706</v>
+        <v>2.810233255882565</v>
       </c>
       <c r="C10">
-        <v>0.2453946683571928</v>
+        <v>0.7022958871550884</v>
       </c>
       <c r="D10">
-        <v>0.02437520670458326</v>
+        <v>0.07145819547861265</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4548962234985083</v>
+        <v>0.5751807345554667</v>
       </c>
       <c r="G10">
-        <v>0.002368304482363534</v>
+        <v>0.0007610203967860572</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2880426474980098</v>
+        <v>0.1400950929114302</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.295378651028301</v>
+        <v>4.656693042040786</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.381653497705685</v>
+        <v>1.419859050496228</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9784643512175535</v>
+        <v>3.00220975576525</v>
       </c>
       <c r="C11">
-        <v>0.2604424270064385</v>
+        <v>0.7463059278390176</v>
       </c>
       <c r="D11">
-        <v>0.0259535535558868</v>
+        <v>0.07612869119416388</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4606261142852688</v>
+        <v>0.6142095767248321</v>
       </c>
       <c r="G11">
-        <v>0.00236655770939395</v>
+        <v>0.0007578876019720425</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2851873916873657</v>
+        <v>0.1429445365757402</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.380858028415375</v>
+        <v>5.100594448057308</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.389604757560022</v>
+        <v>1.509029236456854</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.002411728739844</v>
+        <v>3.074826855236324</v>
       </c>
       <c r="C12">
-        <v>0.2661285110272047</v>
+        <v>0.7629268762549941</v>
       </c>
       <c r="D12">
-        <v>0.02655009612938386</v>
+        <v>0.07789443894815662</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4628584311000452</v>
+        <v>0.6293414919403659</v>
       </c>
       <c r="G12">
-        <v>0.002365908613175067</v>
+        <v>0.0007567054244221946</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.2841529026104013</v>
+        <v>0.1442469217206259</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.413347815844489</v>
+        <v>5.274605786109589</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.392819189730147</v>
+        <v>1.543910555191758</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9972559161310528</v>
+        <v>3.059191336149183</v>
       </c>
       <c r="C13">
-        <v>0.2649044602527511</v>
+        <v>0.7593494154838822</v>
       </c>
       <c r="D13">
-        <v>0.02642167159024211</v>
+        <v>0.07751429028889589</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4623748748431922</v>
+        <v>0.6260661115410358</v>
       </c>
       <c r="G13">
-        <v>0.002366047858565671</v>
+        <v>0.0007569598754161403</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2843736148074321</v>
+        <v>0.1439560407767893</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.406345074486438</v>
+        <v>5.236840461505508</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.392117834069779</v>
+        <v>1.536346246520566</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9804352723217562</v>
+        <v>3.008185722548433</v>
       </c>
       <c r="C14">
-        <v>0.2609104713276906</v>
+        <v>0.747674298964597</v>
       </c>
       <c r="D14">
-        <v>0.02600265464745632</v>
+        <v>0.07627402101686442</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4608085130281552</v>
+        <v>0.6154471475829837</v>
       </c>
       <c r="G14">
-        <v>0.002366504060217704</v>
+        <v>0.0007577902719628387</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.285101345220113</v>
+        <v>0.1430470459059414</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.383528522430112</v>
+        <v>5.114782780719679</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.389865125538137</v>
+        <v>1.511875742568407</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9701272444260667</v>
+        <v>2.976932326935639</v>
       </c>
       <c r="C15">
-        <v>0.2584624379080651</v>
+        <v>0.740516827703857</v>
       </c>
       <c r="D15">
-        <v>0.02574584442997718</v>
+        <v>0.0755139305236483</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4598572254172453</v>
+        <v>0.6089900525406051</v>
       </c>
       <c r="G15">
-        <v>0.002366785106099339</v>
+        <v>0.0007582993949138599</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.285553196639615</v>
+        <v>0.1425201817358364</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.369568655531467</v>
+        <v>5.040835909607082</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.388511812719088</v>
+        <v>1.497036436858451</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9109824417145092</v>
+        <v>2.797676810174607</v>
       </c>
       <c r="C16">
-        <v>0.244409584317026</v>
+        <v>0.6994139965476336</v>
       </c>
       <c r="D16">
-        <v>0.0242719005826828</v>
+        <v>0.07115259406138819</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4545304922656044</v>
+        <v>0.5726769100102231</v>
       </c>
       <c r="G16">
-        <v>0.002368420372410104</v>
+        <v>0.0007612258155288903</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2882357678435881</v>
+        <v>0.1399386448738724</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.289808839894036</v>
+        <v>4.628429270682503</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.381162263610577</v>
+        <v>1.414179590891393</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8746348261060461</v>
+        <v>2.687582892736089</v>
       </c>
       <c r="C17">
-        <v>0.2357674419987177</v>
+        <v>0.6741289399688526</v>
       </c>
       <c r="D17">
-        <v>0.02336569726730886</v>
+        <v>0.06847246230929471</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4513737021488922</v>
+        <v>0.5509791488307911</v>
       </c>
       <c r="G17">
-        <v>0.002369445653096449</v>
+        <v>0.0007630304339095619</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2899643418283198</v>
+        <v>0.1387241953373177</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.241085570046152</v>
+        <v>4.384421369412109</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.377014527866407</v>
+        <v>1.365181870990085</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8537056576601003</v>
+        <v>2.624217002278385</v>
       </c>
       <c r="C18">
-        <v>0.2307890846191185</v>
+        <v>0.6595624354909262</v>
       </c>
       <c r="D18">
-        <v>0.02284375796472204</v>
+        <v>0.06692935606997708</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.449598671037009</v>
+        <v>0.538698415545646</v>
       </c>
       <c r="G18">
-        <v>0.00237004350871179</v>
+        <v>0.0007640723730563101</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.2909889377060715</v>
+        <v>0.1381534273390237</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.213134851996514</v>
+        <v>4.246973207600533</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.374761091135326</v>
+        <v>1.337630467021086</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8466155117849326</v>
+        <v>2.602755325173405</v>
       </c>
       <c r="C19">
-        <v>0.2291022033484751</v>
+        <v>0.654626680853255</v>
       </c>
       <c r="D19">
-        <v>0.02266691687908917</v>
+        <v>0.06640662758054816</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4490046502188321</v>
+        <v>0.5345733707597304</v>
       </c>
       <c r="G19">
-        <v>0.002370247332683009</v>
+        <v>0.0007644258843169651</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2913410540604779</v>
+        <v>0.137981406404613</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.203683639781147</v>
+        <v>4.200898876917307</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.374020786609833</v>
+        <v>1.328406559979356</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8785064840949985</v>
+        <v>2.699307074997819</v>
       </c>
       <c r="C20">
-        <v>0.2366882055296742</v>
+        <v>0.6768230286961341</v>
       </c>
       <c r="D20">
-        <v>0.02346223850631191</v>
+        <v>0.06875793131661112</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4517055359132485</v>
+        <v>0.5532679973001393</v>
       </c>
       <c r="G20">
-        <v>0.00236933566826421</v>
+        <v>0.0007628379295810824</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2897771871545984</v>
+        <v>0.1388400824473486</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.246264572873159</v>
+        <v>4.41008797369301</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.377442366396252</v>
+        <v>1.370331557973429</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9853769272280601</v>
+        <v>3.023169633179123</v>
       </c>
       <c r="C21">
-        <v>0.2620839369618579</v>
+        <v>0.7511048601419645</v>
       </c>
       <c r="D21">
-        <v>0.02612576147360102</v>
+        <v>0.07663840047713677</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.461266891480463</v>
+        <v>0.6185562434914686</v>
       </c>
       <c r="G21">
-        <v>0.002366369727740809</v>
+        <v>0.000757546267742174</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2848863222926639</v>
+        <v>0.1433077520665407</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.390226963500126</v>
+        <v>5.150460828483816</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.390521268151957</v>
+        <v>1.519031872143358</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.055005361385042</v>
+        <v>3.23435158348849</v>
       </c>
       <c r="C22">
-        <v>0.2786103249115968</v>
+        <v>0.7993850806300031</v>
       </c>
       <c r="D22">
-        <v>0.02785984332295044</v>
+        <v>0.08177164779473145</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4678804401264927</v>
+        <v>0.663306639703606</v>
       </c>
       <c r="G22">
-        <v>0.002364503379829103</v>
+        <v>0.0007541108748849965</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2819624092273116</v>
+        <v>0.1475449222935197</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.485021264385452</v>
+        <v>5.66977175806754</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.400255638450602</v>
+        <v>1.622793779134014</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.017863887849671</v>
+        <v>3.121690646153979</v>
       </c>
       <c r="C23">
-        <v>0.2697965531425837</v>
+        <v>0.773645203675926</v>
       </c>
       <c r="D23">
-        <v>0.02693495809737101</v>
+        <v>0.07903370504101304</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4643171792542518</v>
+        <v>0.6392157176960609</v>
       </c>
       <c r="G23">
-        <v>0.002365492911599433</v>
+        <v>0.0007559429932790795</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2834979142835081</v>
+        <v>0.145153257856542</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.434360603402979</v>
+        <v>5.388804992304429</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.394951213894558</v>
+        <v>1.56676071978498</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8767562084177598</v>
+        <v>2.694006793830795</v>
       </c>
       <c r="C24">
-        <v>0.2362719590591098</v>
+        <v>0.6756051233967924</v>
       </c>
       <c r="D24">
-        <v>0.02341859517071754</v>
+        <v>0.06862887779789872</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4515553897732971</v>
+        <v>0.5522326090884775</v>
       </c>
       <c r="G24">
-        <v>0.002369385366243831</v>
+        <v>0.0007629249468165122</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2898617038224636</v>
+        <v>0.1387872948200624</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.243922956444166</v>
+        <v>4.398475365698545</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.377248532188588</v>
+        <v>1.368001469446313</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7236773554402021</v>
+        <v>2.231038262291179</v>
       </c>
       <c r="C25">
-        <v>0.1998205556671451</v>
+        <v>0.5689747812731412</v>
       </c>
       <c r="D25">
-        <v>0.01959846411855182</v>
+        <v>0.05734591506453768</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4393431128729759</v>
+        <v>0.4659005562051277</v>
       </c>
       <c r="G25">
-        <v>0.002373895533297976</v>
+        <v>0.0007706120146489205</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.2978857639372343</v>
+        <v>0.136734012811754</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.041290444874917</v>
+        <v>3.438517127911865</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.363203248816006</v>
+        <v>1.177338487116742</v>
       </c>
     </row>
   </sheetData>
